--- a/data tembak1.xlsx
+++ b/data tembak1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Da Code\aim calc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{802D2AD1-8FBB-4227-8A77-013EC3C96ADD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1F4A6F4-5F94-4DF2-A9D0-D22CB2C51E77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10320" xr2:uid="{28C1DD71-5B91-4A4D-8397-F57B755B2FF5}"/>
   </bookViews>
@@ -36,21 +36,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
-    <t>angle :</t>
-  </si>
-  <si>
-    <t>impact_offset_x :</t>
-  </si>
-  <si>
-    <t>distance :</t>
-  </si>
-  <si>
-    <t>enemy_speed :</t>
-  </si>
-  <si>
-    <t>shell_velocity :</t>
-  </si>
-  <si>
     <t>8.1</t>
   </si>
   <si>
@@ -64,6 +49,21 @@
   </si>
   <si>
     <t>maximum_dispersion</t>
+  </si>
+  <si>
+    <t>distance</t>
+  </si>
+  <si>
+    <t>enemy_speed</t>
+  </si>
+  <si>
+    <t>angle</t>
+  </si>
+  <si>
+    <t>shell_velocity</t>
+  </si>
+  <si>
+    <t>impact_offset_x</t>
   </si>
 </sst>
 </file>
@@ -522,30 +522,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{447CDC0B-AFBA-419C-AA10-339EE4A2815D}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="J46" sqref="J46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:26" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="8" t="s">
         <v>9</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>1</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -770,7 +770,7 @@
     </row>
     <row r="7" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B7" s="10">
         <v>22</v>
@@ -785,7 +785,7 @@
         <v>128</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -810,7 +810,7 @@
     </row>
     <row r="8" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B8" s="10">
         <v>22</v>
@@ -825,7 +825,7 @@
         <v>128</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -905,7 +905,7 @@
         <v>128</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -1145,7 +1145,7 @@
         <v>141</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -2009,12 +2009,24 @@
       <c r="Z37" s="1"/>
     </row>
     <row r="38" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
+      <c r="A38" s="9">
+        <v>11.7</v>
+      </c>
+      <c r="B38" s="10">
+        <v>21</v>
+      </c>
+      <c r="C38" s="11">
+        <v>81</v>
+      </c>
+      <c r="D38" s="12">
+        <v>731</v>
+      </c>
+      <c r="E38" s="7">
+        <v>223</v>
+      </c>
+      <c r="F38" s="14">
+        <v>5.7</v>
+      </c>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
@@ -2037,12 +2049,24 @@
       <c r="Z38" s="1"/>
     </row>
     <row r="39" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
+      <c r="A39" s="9">
+        <v>12.3</v>
+      </c>
+      <c r="B39" s="10">
+        <v>21</v>
+      </c>
+      <c r="C39" s="11">
+        <v>79</v>
+      </c>
+      <c r="D39" s="12">
+        <v>731</v>
+      </c>
+      <c r="E39" s="7">
+        <v>223</v>
+      </c>
+      <c r="F39" s="14">
+        <v>5.5</v>
+      </c>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
@@ -2065,12 +2089,24 @@
       <c r="Z39" s="1"/>
     </row>
     <row r="40" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
+      <c r="A40" s="9">
+        <v>13.3</v>
+      </c>
+      <c r="B40" s="10">
+        <v>30</v>
+      </c>
+      <c r="C40" s="11">
+        <v>11</v>
+      </c>
+      <c r="D40" s="12">
+        <v>731</v>
+      </c>
+      <c r="E40" s="7">
+        <v>223</v>
+      </c>
+      <c r="F40" s="14">
+        <v>2</v>
+      </c>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
@@ -2093,12 +2129,24 @@
       <c r="Z40" s="1"/>
     </row>
     <row r="41" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
+      <c r="A41" s="9">
+        <v>13.8</v>
+      </c>
+      <c r="B41" s="10">
+        <v>23</v>
+      </c>
+      <c r="C41" s="11">
+        <v>16</v>
+      </c>
+      <c r="D41" s="12">
+        <v>805</v>
+      </c>
+      <c r="E41" s="7">
+        <v>236</v>
+      </c>
+      <c r="F41" s="14">
+        <v>1.9</v>
+      </c>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
@@ -2121,12 +2169,24 @@
       <c r="Z41" s="1"/>
     </row>
     <row r="42" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
+      <c r="A42" s="9">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="B42" s="10">
+        <v>30</v>
+      </c>
+      <c r="C42" s="11">
+        <v>86</v>
+      </c>
+      <c r="D42" s="12">
+        <v>805</v>
+      </c>
+      <c r="E42" s="7">
+        <v>236</v>
+      </c>
+      <c r="F42" s="14">
+        <v>2.5</v>
+      </c>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
@@ -2149,12 +2209,24 @@
       <c r="Z42" s="1"/>
     </row>
     <row r="43" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
+      <c r="A43" s="9">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="B43" s="10">
+        <v>30</v>
+      </c>
+      <c r="C43" s="11">
+        <v>68</v>
+      </c>
+      <c r="D43" s="12">
+        <v>790</v>
+      </c>
+      <c r="E43" s="7">
+        <v>236</v>
+      </c>
+      <c r="F43" s="14">
+        <v>3</v>
+      </c>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
@@ -2177,12 +2249,24 @@
       <c r="Z43" s="1"/>
     </row>
     <row r="44" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
+      <c r="A44" s="9">
+        <v>20</v>
+      </c>
+      <c r="B44" s="10">
+        <v>0</v>
+      </c>
+      <c r="C44" s="11">
+        <v>67</v>
+      </c>
+      <c r="D44" s="12">
+        <v>790</v>
+      </c>
+      <c r="E44" s="7">
+        <v>236</v>
+      </c>
+      <c r="F44" s="14">
+        <v>0</v>
+      </c>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
@@ -2205,12 +2289,24 @@
       <c r="Z44" s="1"/>
     </row>
     <row r="45" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
+      <c r="A45" s="9">
+        <v>14</v>
+      </c>
+      <c r="B45" s="10">
+        <v>0</v>
+      </c>
+      <c r="C45" s="11">
+        <v>0</v>
+      </c>
+      <c r="D45" s="12">
+        <v>790</v>
+      </c>
+      <c r="E45" s="7">
+        <v>236</v>
+      </c>
+      <c r="F45" s="14">
+        <v>0</v>
+      </c>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
@@ -2233,12 +2329,24 @@
       <c r="Z45" s="1"/>
     </row>
     <row r="46" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
+      <c r="A46" s="9">
+        <v>13</v>
+      </c>
+      <c r="B46" s="10">
+        <v>20</v>
+      </c>
+      <c r="C46" s="11">
+        <v>0</v>
+      </c>
+      <c r="D46" s="12">
+        <v>880</v>
+      </c>
+      <c r="E46" s="7">
+        <v>141</v>
+      </c>
+      <c r="F46" s="14">
+        <v>0</v>
+      </c>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
@@ -28974,5 +29082,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>